--- a/ozone/multistate/MAE_stacked_VTZP_MS_1.xlsx
+++ b/ozone/multistate/MAE_stacked_VTZP_MS_1.xlsx
@@ -452,10 +452,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1197337538277401</v>
+        <v>0.1281869889686839</v>
       </c>
       <c r="C2" t="n">
-        <v>1.37729157443339</v>
+        <v>19.09143027160977</v>
       </c>
     </row>
     <row r="3">
@@ -465,10 +465,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1359911001053971</v>
+        <v>0.1459241073395148</v>
       </c>
       <c r="C3" t="n">
-        <v>2.135855677598155</v>
+        <v>18.91353231553993</v>
       </c>
     </row>
   </sheetData>

--- a/ozone/multistate/MAE_stacked_VTZP_MS_1.xlsx
+++ b/ozone/multistate/MAE_stacked_VTZP_MS_1.xlsx
@@ -452,10 +452,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1281869889686839</v>
+        <v>0.1249939423272594</v>
       </c>
       <c r="C2" t="n">
-        <v>19.09143027160977</v>
+        <v>1.386908802629518</v>
       </c>
     </row>
     <row r="3">
@@ -465,10 +465,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1459241073395148</v>
+        <v>0.1395485479703855</v>
       </c>
       <c r="C3" t="n">
-        <v>18.91353231553993</v>
+        <v>1.927692934449516</v>
       </c>
     </row>
   </sheetData>
